--- a/biology/Zoologie/Nathan_Banks/Nathan_Banks.xlsx
+++ b/biology/Zoologie/Nathan_Banks/Nathan_Banks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nathan Banks est un entomologiste et un arachnologiste américain, né le 13 avril 1868 à Roslyn (New York) et mort le 24 janvier 1953 (à 84 ans) à Holliston (Massachusetts).
 </t>
@@ -511,20 +523,22 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nathan Banks est né à Roslyn, New York, le 13 avril 1868[1],[2].
-Après avoir fréquenté les écoles de Roslyn[1], il étudie à l'Université Cornell, Ithaca (New York)[2], New York où il reçoit son Bachelor of Sciences en 1889[1],[2].
-Ses études supérieures, réalisées sous la supervision du professeur John Henry Comstock[1], le conduisent au Master of Science en 1890[1],[2].
-La même année, il obtient un poste au Bureau d'entomologie du département de l'Agriculture des États-Unis (USDA) à Washington où pendant vingt-six ans (de 1890 à 1916, et à partir de 1896 en tant qu'entomologiste adjoint)[2], il poursuit des recherches sur la taxonomie des insectes et des arachnides[1]. En 1905, il fait paraître le premier manuel en anglais sur les acariens : A Treatise on the Acarina, Or Mites[3].
-Les années passant, son poste à Washington le satisfait de moins en moins, notamment au regard de la sauvegarde et de l'hébergement de sa collection privée d'insectes résultant d'échanges avec de nombreux entomologistes de nombreux pays et qui avait atteint une taille et une importance extraordinaire[1]. En 1904, il écrit à Samuel Henshaw, le nouveau directeur du Museum of Comparative Zoology de l’université Harvard, dans l'éventualité d'un poste disponible là-bas. Bien que la réponse fut négative dans l'immédiat, Henshaw l'assura d'une opportunité future. Cette opportunité se concrétise finalement plus de dix ans plus tard en 1916 lorsque Banks devient curateur des insectes. Banks succède ainsi à ses éminents prédécesseurs Samuel Hubbard Scudder, Alpheus Spring Packard, Philip Reese Uhler et Hermann August Hagen. Banks fait don de sa bibliothèque et de sa collection au Muséum de Zoologie comparative. Cette collection constitue l'une des plus importantes collections entomologiques reçues par le Muséum avec 120 000 spécimens dont 1 800 types[1].
-En 1928 il devient associate professor de zoologie[1],[2].
-En 1941, lors de l'augmentation du nombre de curateurs en entomologie au Muséum, Banks est nommé curateur en chef des insectes, titre qu'il conserve jusqu'à son départ à la retraite en 1945 à l'âge de 76 ans[1].
-Il est mort dans sa maison d'Holliston, Massachusetts le 24 janvier 1953[1],[2].
-Il était marié avec Mary A. Lu Gar dont il eut huit enfants[1].
-La contribution de Nathan Banks à l'entomologie est remarquable. Elle inclut plus de 440 publications scientifiques publiées entre 1890 et 1951 sur différents aspects de l'entomologie[1] parmi lesquelles The Entomological Code publié en 1912 avec Andrew Nelson Caudell[2].
-La majorité de ses premières publications, de 1890 à 1900, ont été consacrées aux Arachnida mais les plus tardives traitent des ordres Trichoptera, Mecoptera, Neuroptera et Psocoptera[1] ainsi que Plecoptera, Isoptera, Hemiptera, Diptera (en particulier les Psychodidae) et Hymenoptera (en particulier les Pompilidae)[2].
-Bon collecteur d'insectes, il était trop occupé au Muséum pour réaliser de grands voyages qui se sont principalement limités aux États-Unis où il a notamment collecté des spécimens avec son fils Gilbert et avec Philip Jackson Darlington et Frank Morton Carpenter. Son plus lointain voyage de terrain fut réalisé en 1924 à Panama sur l'Île Barro Colorado[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nathan Banks est né à Roslyn, New York, le 13 avril 1868,.
+Après avoir fréquenté les écoles de Roslyn, il étudie à l'Université Cornell, Ithaca (New York), New York où il reçoit son Bachelor of Sciences en 1889,.
+Ses études supérieures, réalisées sous la supervision du professeur John Henry Comstock, le conduisent au Master of Science en 1890,.
+La même année, il obtient un poste au Bureau d'entomologie du département de l'Agriculture des États-Unis (USDA) à Washington où pendant vingt-six ans (de 1890 à 1916, et à partir de 1896 en tant qu'entomologiste adjoint), il poursuit des recherches sur la taxonomie des insectes et des arachnides. En 1905, il fait paraître le premier manuel en anglais sur les acariens : A Treatise on the Acarina, Or Mites.
+Les années passant, son poste à Washington le satisfait de moins en moins, notamment au regard de la sauvegarde et de l'hébergement de sa collection privée d'insectes résultant d'échanges avec de nombreux entomologistes de nombreux pays et qui avait atteint une taille et une importance extraordinaire. En 1904, il écrit à Samuel Henshaw, le nouveau directeur du Museum of Comparative Zoology de l’université Harvard, dans l'éventualité d'un poste disponible là-bas. Bien que la réponse fut négative dans l'immédiat, Henshaw l'assura d'une opportunité future. Cette opportunité se concrétise finalement plus de dix ans plus tard en 1916 lorsque Banks devient curateur des insectes. Banks succède ainsi à ses éminents prédécesseurs Samuel Hubbard Scudder, Alpheus Spring Packard, Philip Reese Uhler et Hermann August Hagen. Banks fait don de sa bibliothèque et de sa collection au Muséum de Zoologie comparative. Cette collection constitue l'une des plus importantes collections entomologiques reçues par le Muséum avec 120 000 spécimens dont 1 800 types.
+En 1928 il devient associate professor de zoologie,.
+En 1941, lors de l'augmentation du nombre de curateurs en entomologie au Muséum, Banks est nommé curateur en chef des insectes, titre qu'il conserve jusqu'à son départ à la retraite en 1945 à l'âge de 76 ans.
+Il est mort dans sa maison d'Holliston, Massachusetts le 24 janvier 1953,.
+Il était marié avec Mary A. Lu Gar dont il eut huit enfants.
+La contribution de Nathan Banks à l'entomologie est remarquable. Elle inclut plus de 440 publications scientifiques publiées entre 1890 et 1951 sur différents aspects de l'entomologie parmi lesquelles The Entomological Code publié en 1912 avec Andrew Nelson Caudell.
+La majorité de ses premières publications, de 1890 à 1900, ont été consacrées aux Arachnida mais les plus tardives traitent des ordres Trichoptera, Mecoptera, Neuroptera et Psocoptera ainsi que Plecoptera, Isoptera, Hemiptera, Diptera (en particulier les Psychodidae) et Hymenoptera (en particulier les Pompilidae).
+Bon collecteur d'insectes, il était trop occupé au Muséum pour réaliser de grands voyages qui se sont principalement limités aux États-Unis où il a notamment collecté des spécimens avec son fils Gilbert et avec Philip Jackson Darlington et Frank Morton Carpenter. Son plus lointain voyage de terrain fut réalisé en 1924 à Panama sur l'Île Barro Colorado.
 </t>
         </is>
       </c>
@@ -555,8 +569,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Les araignées
-Au cours de ses travaux sur les araignées, il a décrit plusieurs centaines d'espèces et sous-espèces toujours valides[4].
+          <t>Les araignées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours de ses travaux sur les araignées, il a décrit plusieurs centaines d'espèces et sous-espèces toujours valides.
 Acanthepeira venusta (Banks, 1896) - famille Araneidae
 Achaearanea micratula (Banks, 1909) - famille Theridiidae
 Agelenopsis longistyla (Banks, 1901) - famille Agelenidae
@@ -986,34 +1005,106 @@
 Zygoballus incertus (Banks, 1929) - famille Salticidae
 Zygoballus iridescens Banks, 1895 - famille Salticidae
 Rendant hommage à son travail sur les araignées, certaines d'entre elles ont été nommées en son honneur avec les épithètes banksi ou banksia.
-Anasaitis banksi (Roewer, 1951)[5] - famille Salticidae
-Anopsicus banksi (Gertsch, 1939)[6] - famille Pholcidae
-Carabella banksi Chickering, 1946[7] - famille Salticidae
-Dipoena banksi Chickering, 1943[8] - famille Theridiidae
-Euophrys banksi Roewer, 1951[5] - famille Salticidae
-Eustala banksi Chickering, 1955[9] - famille Araneidae
-Hahnia banksi Fage, 1938[10] - famille Hahniidae
-Hamataliwa banksi (Mello-Leitão, 1928)[11] - famille Oxyopidae
-Hibana banksi (Strand, 1906)[12] - famille Anyphaenidae
-Micrathena banksi Levi, 1985[13] - famille Araneidae
-Mimetus banksi Chickering, 1947[14] - famille Mimetidae
-Oedothorax banksi Strand, 1906[15] - famille Linyphiidae
-Parafluda banksi Chickering, 1946[7] - famille Salticidae
-Phrurolithus banksi Gertsch, 1941[16] - famille Phrurolithidae
-Robertus banksi (Kaston, 1946)[17] - famille Theridiidae
-Selenops banksi Muma, 1953[18] - famille Selenopidae
-Terralonus banksi (Roewer, 1951)[5] - famille Salticidae
-Thymoites banksi (Bryant, 1948)[19] - famille Theridiidae
-Trichopelma banksia Özdikmen &amp; Demir, 2012[20] - famille Theraphosidae
-Xysticus banksi Bryant, 1933[21] - famille Thomisidae
-Les insectes
+Anasaitis banksi (Roewer, 1951) - famille Salticidae
+Anopsicus banksi (Gertsch, 1939) - famille Pholcidae
+Carabella banksi Chickering, 1946 - famille Salticidae
+Dipoena banksi Chickering, 1943 - famille Theridiidae
+Euophrys banksi Roewer, 1951 - famille Salticidae
+Eustala banksi Chickering, 1955 - famille Araneidae
+Hahnia banksi Fage, 1938 - famille Hahniidae
+Hamataliwa banksi (Mello-Leitão, 1928) - famille Oxyopidae
+Hibana banksi (Strand, 1906) - famille Anyphaenidae
+Micrathena banksi Levi, 1985 - famille Araneidae
+Mimetus banksi Chickering, 1947 - famille Mimetidae
+Oedothorax banksi Strand, 1906 - famille Linyphiidae
+Parafluda banksi Chickering, 1946 - famille Salticidae
+Phrurolithus banksi Gertsch, 1941 - famille Phrurolithidae
+Robertus banksi (Kaston, 1946) - famille Theridiidae
+Selenops banksi Muma, 1953 - famille Selenopidae
+Terralonus banksi (Roewer, 1951) - famille Salticidae
+Thymoites banksi (Bryant, 1948) - famille Theridiidae
+Trichopelma banksia Özdikmen &amp; Demir, 2012 - famille Theraphosidae
+Xysticus banksi Bryant, 1933 - famille Thomisidae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nathan_Banks</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nathan_Banks</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Héritage naturaliste</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les insectes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Spilosmylus alticolus Banks, 1937
 Spilosmylus apoanus Banks, 1937
 Spilosmylus formosus Banks, 1924
 Spilosmylus monticolus (Banks, 1937)
 Spilosmylus proximus Banks, 1937
 ...
-Publications dans des revues scientifiques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nathan_Banks</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nathan_Banks</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Héritage naturaliste</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publications dans des revues scientifiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste partielle (à dérouler)
 Banks, N. 1891. Synonymical notes in spiders. Entomological News, 2: 193.
 Banks, N. 1891. Notes on some spiders described by Hentz. Entomological News, 2: 84-87.
@@ -1082,35 +1173,63 @@
 Banks, N. 1905. Arachnids from Cocos Island. Proceedings of the Entomological Society of Washington, 7(1): 20-23.
 Banks, N. 1905. Synopses of North American invertebrates. XX. Families and genera of Araneida. American Naturalist, 39: 293-323.
 Banks, N. 1906. Arachnida from the Bahamas. Bulletin of the American Museum of Natural History, 22: 185–189.
-Banks, N. 1906. Descriptions of n</t>
+Banks, N. 1906. Descriptions of new American spiders. Proceedings of the Entomological Society of Washington, 7: 94-100.
+Banks, N. 1907. A preliminary list of the Arachnida of Indiana, with keys to families and genera of spiders. Indiana Department of Geology and Natural Resources, Annual Report (1906), 31: 715–747.
+Banks, N. 1908. Fauna of New England. List of the Phalangida, Pseudoscorpionida, and Acarina. Occasional Papers of the Boston Society of Natural History, 7(10): 1–20.
+Banks, N. 1908. New species of Theridiidae. The Canadian Entomologist, 40: 205-208.
+Banks, N. 1908. Three new species of tropical Phalangida. Proceedings of the Entomological Society of Washington, 9(1–4): 37–39.
+Banks, N. 1909. Arachnida from Costa Rica. Proceedings of the Academy of Natural Sciences of Philadelphia, 61(2): 194–234, pl. V, VI.
+Banks, N. 1909. Arachnida of Cuba. Estación central agronómica de Cuba, Second Report, Part 2, pp. 150-174, pl. 45.
+Banks, N. 1910. A handsome species of Phalangidae. Entomological News, 21(4): 156.
+Banks, N. 1910. Catalogue of Nearctic spiders. Bulletin, United States National Museum, 72: 1-80.
+Banks, N. 1911. The Phalangida of California. Pomona College Journal of Entomology, Claremont, 3(1): 412–421.
+Banks, N. 1911. Some Arachnida from North Carolina. Proceedings of the Academy of Natural Sciences of Philadelphia, 63(2): 440-456, pl. 34-35.
+Banks, N. 1913. Notes on the types of some American spiders in European collections. Proceedings of the Academy of Natural Sciences of Philadelphia, 65: 177-188.
+Banks, N. 1913. Notes on Some Costa Rican Arachnida. Proceedings of the Academy of Natural Sciences of Philadelphia, 65: 676–687, pl. 28–30.
+Banks, N. 1914. Arachnida from South Georgia. Bulletin of the Brooklyn Institute of Arts and Sciences, 2: 78-79.
+Banks, N. 1914. New West Indian spiders. Bulletin of the American Museum of Natural History, 33: 639-642.
+Banks, N. 1916. Report on Arachnida collected by Messrs. Currie, Caudell, and Dyar in British Columbia. Proceedings of the United States National Museum, 51(2143): 67–72.
+Banks, N. 1916. Revision of Cayuga Lake spiders. Proceedings of the Academy of Natural Sciences of Philadelphia, 68: 68-84.
+Banks, N. 1921. New Californian spiders. Proceedings of the California Academy of Sciences, 11: 99-102.
+Banks, N. 1923. Arachnida. In: A biological survey of the Pribilof Islands, Alaska. Part II. Insects, arachnids, and chilopods of the Pribilof Islands, Alaska. North American Fauna, 46, 158, 237–239, pl. 9, figs. 1–7.
+Banks, N. 1924. Arachnida of the Williams Galapagos Expedition. Zoologica (New York), 5: 93-99.
+Banks, N. 1926. Description of new species, Myrmecotypus cubanus sp. nov. Transactions of the Entomological Society of London, 74: 427-436.
+Banks, N. 1929. Spiders from Panama. Bulletin of the Museum of Comparative Zoology, 69: 53-96.
+Banks, N. 1930. Ant-like spiders of the genus Myrmarachne from the Philippines. Psyche, 37: 207-217.
+Banks, N. 1930. Phalangida from Borneo. The Sarawak Museum Journal, n.s., 4(12): 57–86, pl. 11–12.
+Banks, N. 1930. The Norwegian zoological expedition to the Galapagos Islands 1925, conducted by Alf Wollebaek. I. Arachnida. Nytt magasin for Naturvidenskapene, 68: 271–278.
+Banks, N., Newport, N. M., Bird, R. D. 1932. Oklahoma spiders. Publications of the Oklahoma Biological Survey, 4(1): 7-49.
+</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Nathan_Banks</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Nathan_Banks</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Un timbre des Comores de 2008 représente Nathan banks (1868-1953) et Nymphalis antiopa (200 FC).
 </t>
